--- a/biology/Botanique/Rhodohypoxis/Rhodohypoxis.xlsx
+++ b/biology/Botanique/Rhodohypoxis/Rhodohypoxis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodohypoxis est un genre de plantes monocotylédones de la famille des Hypoxidaceae, originaire d'Afrique australe, qui comprend six espèces acceptées. Certains auteurs le considèrent comme un synonyme de Hypoxis L. Ce sont des plantes de petite taille, géophytes à bulbe, couramment cultivées comme plantes bulbeuses ornementales.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (9 juillet 2021)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (9 juillet 2021) :
 Rhodohypoxis baurii (Baker) Nel
 Rhodohypoxis deflexa Hilliard &amp; B.L.Burtt
 Rhodohypoxis incompta Hilliard &amp; B.L.Burtt
